--- a/0_CERTIFICATES/2024-04-04_COURSE_Sheet.xlsx
+++ b/0_CERTIFICATES/2024-04-04_COURSE_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\CourseraPlus\0_CERTIFICATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E3F63-8D39-4C00-8F8D-E74540BBAF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DF6D8-7474-46DC-BD6F-DE674F18FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
   <si>
     <t>COURSERA Plus Courses</t>
   </si>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>2024 - 01 - 08</t>
+  </si>
+  <si>
+    <t>Google Cloud Digital Cloud Leader Cert Prep: 3 Innovating with Google Cloud Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>2024 - 04 - 16</t>
+  </si>
+  <si>
+    <t>2024 - 04 - 28</t>
+  </si>
+  <si>
+    <t>Advanced Machine Learning .NET Applications</t>
+  </si>
+  <si>
+    <t>2024 - 04 - 18</t>
+  </si>
+  <si>
+    <t>The Cybersecurity Threat Landscape</t>
+  </si>
+  <si>
+    <t>2024 - 04 - 24</t>
+  </si>
+  <si>
+    <t>Cybersecurity Foundations</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1191,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
-        <f t="shared" ref="B8:B70" ca="1" si="0">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
+        <f t="shared" ref="B10:B70" ca="1" si="0">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -1303,7 +1327,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
-        <f ca="1">IFERROR(OFFSET(B16,-1,0,1,1)+1,"")</f>
+        <f t="shared" ref="B16:B40" ca="1" si="1">IFERROR(OFFSET(B16,-1,0,1,1)+1,"")</f>
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1326,7 +1350,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
-        <f ca="1">IFERROR(OFFSET(B17,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1349,7 +1373,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
-        <f ca="1">IFERROR(OFFSET(B18,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -1372,7 +1396,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
-        <f ca="1">IFERROR(OFFSET(B19,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -1395,7 +1419,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
-        <f ca="1">IFERROR(OFFSET(B20,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -1418,7 +1442,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
-        <f ca="1">IFERROR(OFFSET(B21,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1437,7 +1461,7 @@
         <v>0.06</v>
       </c>
       <c r="H21" s="26" t="str">
-        <f t="shared" ref="H21:H27" si="1">IF(G21-J21=0,"",ROUND(G21-J21,2)*100&amp;"% Better")</f>
+        <f t="shared" ref="H21:H27" si="2">IF(G21-J21=0,"",ROUND(G21-J21,2)*100&amp;"% Better")</f>
         <v>5% Better</v>
       </c>
       <c r="J21" s="24">
@@ -1446,7 +1470,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <f ca="1">IFERROR(OFFSET(B22,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1465,14 +1489,14 @@
         <v>0.21</v>
       </c>
       <c r="H22" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21% Better</v>
       </c>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
-        <f ca="1">IFERROR(OFFSET(B23,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1491,14 +1515,14 @@
         <v>0.17</v>
       </c>
       <c r="H23" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17% Better</v>
       </c>
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
-        <f ca="1">IFERROR(OFFSET(B24,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1517,14 +1541,14 @@
         <v>0.17</v>
       </c>
       <c r="H24" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17% Better</v>
       </c>
       <c r="J24" s="24"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <f ca="1">IFERROR(OFFSET(B25,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1543,13 +1567,13 @@
         <v>0.38</v>
       </c>
       <c r="H25" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38% Better</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <f ca="1">IFERROR(OFFSET(B26,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1568,7 +1592,7 @@
         <v>0.53</v>
       </c>
       <c r="H26" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5% Better</v>
       </c>
       <c r="J26" s="24">
@@ -1577,7 +1601,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
-        <f ca="1">IFERROR(OFFSET(B27,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1596,14 +1620,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H27" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% Better</v>
       </c>
       <c r="J27" s="24"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
-        <f ca="1">IFERROR(OFFSET(B28,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1631,7 +1655,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
-        <f ca="1">IFERROR(OFFSET(B29,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1650,7 +1674,7 @@
         <v>0.64</v>
       </c>
       <c r="H29" s="26" t="str">
-        <f t="shared" ref="H29:H32" si="2">IF(G29-J29=0,"",ROUND(G29-J29,2)*100&amp;"% Better")</f>
+        <f t="shared" ref="H29:H32" si="3">IF(G29-J29=0,"",ROUND(G29-J29,2)*100&amp;"% Better")</f>
         <v>28% Better</v>
       </c>
       <c r="J29" s="24">
@@ -1659,7 +1683,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
-        <f ca="1">IFERROR(OFFSET(B30,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1678,14 +1702,14 @@
         <v>0.36</v>
       </c>
       <c r="H30" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36% Better</v>
       </c>
       <c r="J30" s="24"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <f ca="1">IFERROR(OFFSET(B31,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1704,14 +1728,14 @@
         <v>0.2</v>
       </c>
       <c r="H31" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20% Better</v>
       </c>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <f ca="1">IFERROR(OFFSET(B32,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1730,14 +1754,14 @@
         <v>0.19</v>
       </c>
       <c r="H32" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19% Better</v>
       </c>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
-        <f ca="1">IFERROR(OFFSET(B33,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1756,7 +1780,7 @@
         <v>0.45</v>
       </c>
       <c r="H33" s="26" t="str">
-        <f>IF(G33-J33=0,"",ROUND(G33-J33,2)*100&amp;"% Better")</f>
+        <f t="shared" ref="H33:H40" si="4">IF(G33-J33=0,"",ROUND(G33-J33,2)*100&amp;"% Better")</f>
         <v>2% Better</v>
       </c>
       <c r="J33" s="24">
@@ -1765,7 +1789,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
-        <f ca="1">IFERROR(OFFSET(B34,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1784,7 +1808,7 @@
         <v>0.05</v>
       </c>
       <c r="H34" s="26" t="str">
-        <f>IF(G34-J34=0,"",ROUND(G34-J34,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J34" s="24">
@@ -1793,7 +1817,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <f ca="1">IFERROR(OFFSET(B35,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1812,7 +1836,7 @@
         <v>0.26</v>
       </c>
       <c r="H35" s="26" t="str">
-        <f>IF(G35-J35=0,"",ROUND(G35-J35,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v>21% Better</v>
       </c>
       <c r="J35" s="24">
@@ -1821,7 +1845,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <f ca="1">IFERROR(OFFSET(B36,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1840,7 +1864,7 @@
         <v>0.69</v>
       </c>
       <c r="H36" s="26" t="str">
-        <f>IF(G36-J36=0,"",ROUND(G36-J36,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v>11% Better</v>
       </c>
       <c r="J36" s="24">
@@ -1849,7 +1873,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <f ca="1">IFERROR(OFFSET(B37,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1868,7 +1892,7 @@
         <v>0.35</v>
       </c>
       <c r="H37" s="26" t="str">
-        <f>IF(G37-J37=0,"",ROUND(G37-J37,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J37" s="24">
@@ -1877,7 +1901,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
-        <f ca="1">IFERROR(OFFSET(B38,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -1896,7 +1920,7 @@
         <v>0.18</v>
       </c>
       <c r="H38" s="26" t="str">
-        <f>IF(G38-J38=0,"",ROUND(G38-J38,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J38" s="24">
@@ -1905,7 +1929,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
-        <f ca="1">IFERROR(OFFSET(B39,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -1924,7 +1948,7 @@
         <v>0.21</v>
       </c>
       <c r="H39" s="26" t="str">
-        <f>IF(G39-J39=0,"",ROUND(G39-J39,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J39" s="24">
@@ -1933,7 +1957,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
-        <f ca="1">IFERROR(OFFSET(B40,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1952,7 +1976,7 @@
         <v>0.06</v>
       </c>
       <c r="H40" s="26" t="str">
-        <f>IF(G40-J40=0,"",ROUND(G40-J40,2)*100&amp;"% Better")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J40" s="24">
@@ -1980,7 +2004,7 @@
         <v>0.11</v>
       </c>
       <c r="H41" s="26" t="str">
-        <f t="shared" ref="H41" si="3">IF(G41-J41=0,"",ROUND(G41-J41,2)*100&amp;"% Better")</f>
+        <f t="shared" ref="H41" si="5">IF(G41-J41=0,"",ROUND(G41-J41,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J41" s="24">
@@ -2120,7 +2144,7 @@
         <v>0.16</v>
       </c>
       <c r="H46" s="26" t="str">
-        <f t="shared" ref="H46:H51" si="4">IF(G46-J46=0,"",ROUND(G46-J46,2)*100&amp;"% Better")</f>
+        <f t="shared" ref="H46:H51" si="6">IF(G46-J46=0,"",ROUND(G46-J46,2)*100&amp;"% Better")</f>
         <v>16% Better</v>
       </c>
       <c r="J46" s="24">
@@ -2148,7 +2172,7 @@
         <v>0.04</v>
       </c>
       <c r="H47" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% Better</v>
       </c>
       <c r="J47" s="24">
@@ -2176,7 +2200,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50% Better</v>
       </c>
       <c r="J48" s="24">
@@ -2204,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J49" s="24">
@@ -2232,7 +2256,7 @@
         <v>0.24</v>
       </c>
       <c r="H50" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24% Better</v>
       </c>
       <c r="J50" s="24">
@@ -2241,7 +2265,7 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
-        <f ca="1">IFERROR(OFFSET(B51,-1,0,1,1)+1,"")</f>
+        <f t="shared" ref="B51:B56" ca="1" si="7">IFERROR(OFFSET(B51,-1,0,1,1)+1,"")</f>
         <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2260,7 +2284,7 @@
         <v>0.35</v>
       </c>
       <c r="H51" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J51" s="24">
@@ -2269,7 +2293,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
-        <f ca="1">IFERROR(OFFSET(B52,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>48</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2297,7 +2321,7 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
-        <f ca="1">IFERROR(OFFSET(B53,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>49</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2325,7 +2349,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
-        <f ca="1">IFERROR(OFFSET(B54,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>50</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -2353,7 +2377,7 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
-        <f ca="1">IFERROR(OFFSET(B55,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>51</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -2381,7 +2405,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
-        <f ca="1">IFERROR(OFFSET(B56,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2428,7 +2452,7 @@
         <v>0.32</v>
       </c>
       <c r="H57" s="26" t="str">
-        <f t="shared" ref="H57:H70" si="5">IF(G57-J57=0,"",ROUND(G57-J57,2)*100&amp;"% Better")</f>
+        <f t="shared" ref="H57:H70" si="8">IF(G57-J57=0,"",ROUND(G57-J57,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J57" s="24">
@@ -2456,7 +2480,7 @@
         <v>0.93</v>
       </c>
       <c r="H58" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J58" s="24">
@@ -2484,7 +2508,7 @@
         <v>0.43</v>
       </c>
       <c r="H59" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J59" s="24">
@@ -2512,7 +2536,7 @@
         <v>0.43</v>
       </c>
       <c r="H60" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J60" s="24">
@@ -2540,7 +2564,7 @@
         <v>0.35</v>
       </c>
       <c r="H61" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J61" s="24">
@@ -2568,7 +2592,7 @@
         <v>0.4</v>
       </c>
       <c r="H62" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J62" s="24">
@@ -2596,7 +2620,7 @@
         <v>0.31</v>
       </c>
       <c r="H63" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J63" s="24">
@@ -2624,7 +2648,7 @@
         <v>0.24</v>
       </c>
       <c r="H64" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J64" s="24">
@@ -2652,7 +2676,7 @@
         <v>0.38</v>
       </c>
       <c r="H65" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J65" s="24">
@@ -2680,7 +2704,7 @@
         <v>0.39</v>
       </c>
       <c r="H66" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J66" s="24">
@@ -2708,7 +2732,7 @@
         <v>0.45</v>
       </c>
       <c r="H67" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J67" s="24">
@@ -2736,7 +2760,7 @@
         <v>0.09</v>
       </c>
       <c r="H68" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J68" s="24">
@@ -2764,7 +2788,7 @@
         <v>0.31</v>
       </c>
       <c r="H69" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J69" s="24">
@@ -2792,7 +2816,7 @@
         <v>0.27</v>
       </c>
       <c r="H70" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J70" s="24">
@@ -2810,16 +2834,16 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" customWidth="1"/>
+    <col min="3" max="3" width="83.21875" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
@@ -2846,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2928,7 +2952,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
-        <f t="shared" ref="B5:B8" ca="1" si="0">IFERROR(OFFSET(B8,-1,0,1,1)+1,"")</f>
+        <f t="shared" ref="B8" ca="1" si="0">IFERROR(OFFSET(B8,-1,0,1,1)+1,"")</f>
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2947,7 +2971,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
-        <f ca="1">IFERROR(OFFSET(B9,-1,0,1,1)+1,"")</f>
+        <f t="shared" ref="B9:B22" ca="1" si="1">IFERROR(OFFSET(B9,-1,0,1,1)+1,"")</f>
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2967,7 +2991,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
-        <f ca="1">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -2987,7 +3011,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
-        <f ca="1">IFERROR(OFFSET(B11,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -3007,7 +3031,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
-        <f ca="1">IFERROR(OFFSET(B12,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -3027,7 +3051,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
-        <f ca="1">IFERROR(OFFSET(B13,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -3047,7 +3071,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
-        <f ca="1">IFERROR(OFFSET(B14,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3067,7 +3091,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
-        <f ca="1">IFERROR(OFFSET(B15,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -3086,7 +3110,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
-        <f ca="1">IFERROR(OFFSET(B16,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -3105,7 +3129,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
-        <f ca="1">IFERROR(OFFSET(B17,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -3125,7 +3149,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
-        <f ca="1">IFERROR(OFFSET(B18,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -3142,6 +3166,82 @@
       </c>
       <c r="G18" s="23"/>
       <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="20">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="20">
+        <v>2024</v>
+      </c>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="20">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_CERTIFICATES/2024-04-04_COURSE_Sheet.xlsx
+++ b/0_CERTIFICATES/2024-04-04_COURSE_Sheet.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\CourseraPlus\0_CERTIFICATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DF6D8-7474-46DC-BD6F-DE674F18FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723B0BA9-7D56-4D9B-AE85-033C84918A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COURSERA_PLUS" sheetId="3" r:id="rId1"/>
-    <sheet name="LinkedIn_Learning" sheetId="4" r:id="rId2"/>
+    <sheet name="CourseraPlus_01" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="CourseraPlus_00" sheetId="3" r:id="rId3"/>
+    <sheet name="LinkedIn_Learning" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COURSERA_PLUS!$B$4:$H$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">COURSERA_PLUS!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CourseraPlus_00!$B$4:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CourseraPlus_01!$B$4:$H$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">CourseraPlus_00!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CourseraPlus_01!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="149">
   <si>
     <t>COURSERA Plus Courses</t>
   </si>
@@ -469,6 +473,24 @@
   </si>
   <si>
     <t>Cybersecurity Foundations</t>
+  </si>
+  <si>
+    <t>2024 - 06 - 17</t>
+  </si>
+  <si>
+    <t>Ethical Hacking Essentials (EHE)</t>
+  </si>
+  <si>
+    <t>Cybersecurity Foundations for Risk Management</t>
+  </si>
+  <si>
+    <t>Machine Learning and Human Learning</t>
+  </si>
+  <si>
+    <t>Learn Data Storytelling: Power BI Techniques</t>
+  </si>
+  <si>
+    <t>Preparing Data for Analysis with Microsoft Excel</t>
   </si>
 </sst>
 </file>
@@ -589,7 +611,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +654,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -661,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,6 +757,12 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,14 +1044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3795532F-1F0F-42CE-8B07-87BBE58AA400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678FC38-458E-487D-84B3-C406651B4114}">
   <sheetPr>
     <tabColor rgb="FF99FF33"/>
   </sheetPr>
-  <dimension ref="B1:J70"/>
+  <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="D3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1092,7 +1126,7 @@
       <c r="E5" s="19">
         <v>44622</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="31">
         <v>2022</v>
       </c>
       <c r="G5" s="21">
@@ -1114,7 +1148,7 @@
       <c r="E6" s="19">
         <v>44641</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="31">
         <v>2022</v>
       </c>
       <c r="G6" s="21">
@@ -1136,7 +1170,7 @@
       <c r="E7" s="19">
         <v>44710</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="31">
         <v>2022</v>
       </c>
       <c r="G7" s="21">
@@ -1158,7 +1192,7 @@
       <c r="E8" s="19">
         <v>44724</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="31">
         <v>2022</v>
       </c>
       <c r="G8" s="21">
@@ -1180,7 +1214,7 @@
       <c r="E9" s="19">
         <v>44807</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="31">
         <v>2022</v>
       </c>
       <c r="G9" s="21">
@@ -1191,7 +1225,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
-        <f t="shared" ref="B10:B70" ca="1" si="0">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
+        <f t="shared" ref="B10:B76" ca="1" si="0">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -1327,7 +1361,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
-        <f t="shared" ref="B16:B40" ca="1" si="1">IFERROR(OFFSET(B16,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1350,7 +1384,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1373,7 +1407,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -1396,7 +1430,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -1408,7 +1442,7 @@
       <c r="E19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="30">
         <v>2024</v>
       </c>
       <c r="G19" s="21">
@@ -1419,7 +1453,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -1431,7 +1465,7 @@
       <c r="E20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="30">
         <v>2024</v>
       </c>
       <c r="G20" s="21">
@@ -1442,14 +1476,14 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -1458,23 +1492,23 @@
         <v>2023</v>
       </c>
       <c r="G21" s="24">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="H21" s="26" t="str">
-        <f t="shared" ref="H21:H27" si="2">IF(G21-J21=0,"",ROUND(G21-J21,2)*100&amp;"% Better")</f>
-        <v>5% Better</v>
+        <f>IF(G21-J21=0,"",ROUND(G21-J21,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J21" s="24">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
@@ -1486,101 +1520,110 @@
         <v>2023</v>
       </c>
       <c r="G22" s="24">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="H22" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>21% Better</v>
-      </c>
-      <c r="J22" s="24"/>
+        <f>IF(G22-J22=0,"",ROUND(G22-J22,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J22" s="24">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G23" s="24">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="H23" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>17% Better</v>
-      </c>
-      <c r="J23" s="24"/>
+        <f>IF(G23-J23=0,"",ROUND(G23-J23,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J23" s="24">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G24" s="24">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="H24" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>17% Better</v>
-      </c>
-      <c r="J24" s="24"/>
+        <f>IF(G24-J24=0,"",ROUND(G24-J24,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J24" s="24">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="28">
+        <v>72</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8">
         <v>2024</v>
       </c>
       <c r="G25" s="24">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="H25" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>38% Better</v>
+        <f>IF(G25-J25=0,"",ROUND(G25-J25,2)*100&amp;"% Better")</f>
+        <v>13% Better</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
@@ -1589,23 +1632,23 @@
         <v>2023</v>
       </c>
       <c r="G26" s="24">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
       <c r="H26" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>5% Better</v>
+        <f>IF(G26-J26=0,"",ROUND(G26-J26,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J26" s="24">
-        <v>0.48</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>57</v>
@@ -1617,73 +1660,75 @@
         <v>2024</v>
       </c>
       <c r="G27" s="24">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H27" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>7% Better</v>
-      </c>
-      <c r="J27" s="24"/>
+        <f>IF(G27-J27=0,"",ROUND(G27-J27,2)*100&amp;"% Better")</f>
+        <v>2% Better</v>
+      </c>
+      <c r="J27" s="24">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G28" s="24">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="H28" s="26" t="str">
         <f>IF(G28-J28=0,"",ROUND(G28-J28,2)*100&amp;"% Better")</f>
-        <v/>
+        <v>13% Better</v>
       </c>
       <c r="J28" s="24">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G29" s="24">
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="H29" s="26" t="str">
-        <f t="shared" ref="H29:H32" si="3">IF(G29-J29=0,"",ROUND(G29-J29,2)*100&amp;"% Better")</f>
-        <v>28% Better</v>
+        <f>IF(G29-J29=0,"",ROUND(G29-J29,2)*100&amp;"% Better")</f>
+        <v>6% Better</v>
       </c>
       <c r="J29" s="24">
-        <v>0.36</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1702,14 +1747,16 @@
         <v>0.36</v>
       </c>
       <c r="H30" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>36% Better</v>
-      </c>
-      <c r="J30" s="24"/>
+        <f>IF(G30-J30=0,"",ROUND(G30-J30,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J30" s="24">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1728,14 +1775,16 @@
         <v>0.2</v>
       </c>
       <c r="H31" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>20% Better</v>
-      </c>
-      <c r="J31" s="24"/>
+        <f>IF(G31-J31=0,"",ROUND(G31-J31,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J31" s="24">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1754,77 +1803,79 @@
         <v>0.19</v>
       </c>
       <c r="H32" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>19% Better</v>
-      </c>
-      <c r="J32" s="24"/>
+        <f>IF(G32-J32=0,"",ROUND(G32-J32,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J32" s="24">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G33" s="24">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="H33" s="26" t="str">
-        <f t="shared" ref="H33:H40" si="4">IF(G33-J33=0,"",ROUND(G33-J33,2)*100&amp;"% Better")</f>
+        <f>IF(G33-J33=0,"",ROUND(G33-J33,2)*100&amp;"% Better")</f>
         <v>2% Better</v>
       </c>
       <c r="J33" s="24">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G34" s="24">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H34" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>IF(G34-J34=0,"",ROUND(G34-J34,2)*100&amp;"% Better")</f>
+        <v>8% Better</v>
       </c>
       <c r="J34" s="24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IFERROR(OFFSET(B35,-1,0,1,1)+1,"")</f>
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -1833,26 +1884,26 @@
         <v>2023</v>
       </c>
       <c r="G35" s="24">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="H35" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>21% Better</v>
+        <f>IF(G35-J35=0,"",ROUND(G35-J35,2)*100&amp;"% Better")</f>
+        <v>3% Better</v>
       </c>
       <c r="J35" s="24">
-        <v>0.05</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -1861,26 +1912,26 @@
         <v>2023</v>
       </c>
       <c r="G36" s="24">
-        <v>0.69</v>
+        <v>0.21</v>
       </c>
       <c r="H36" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v>11% Better</v>
+        <f>IF(G36-J36=0,"",ROUND(G36-J36,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J36" s="24">
-        <v>0.57999999999999996</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -1889,51 +1940,51 @@
         <v>2023</v>
       </c>
       <c r="G37" s="24">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="H37" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(G37-J37=0,"",ROUND(G37-J37,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J37" s="24">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G38" s="24">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="H38" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(G38-J38=0,"",ROUND(G38-J38,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J38" s="24">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
@@ -1942,29 +1993,29 @@
         <v>17</v>
       </c>
       <c r="F39" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G39" s="24">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(G39-J39=0,"",ROUND(G39-J39,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J39" s="24">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -1973,14 +2024,14 @@
         <v>2023</v>
       </c>
       <c r="G40" s="24">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(G40-J40=0,"",ROUND(G40-J40,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J40" s="24">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1989,10 +2040,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -2001,26 +2052,26 @@
         <v>2023</v>
       </c>
       <c r="G41" s="24">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="H41" s="26" t="str">
-        <f t="shared" ref="H41" si="5">IF(G41-J41=0,"",ROUND(G41-J41,2)*100&amp;"% Better")</f>
+        <f>IF(G41-J41=0,"",ROUND(G41-J41,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J41" s="24">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
-        <f ca="1">IFERROR(OFFSET(B42,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>17</v>
@@ -2029,26 +2080,26 @@
         <v>2023</v>
       </c>
       <c r="G42" s="24">
-        <v>0.06</v>
+        <v>0.53</v>
       </c>
       <c r="H42" s="26" t="str">
         <f>IF(G42-J42=0,"",ROUND(G42-J42,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J42" s="24">
-        <v>0.06</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
-        <f ca="1">IFERROR(OFFSET(B43,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>17</v>
@@ -2057,42 +2108,42 @@
         <v>2023</v>
       </c>
       <c r="G43" s="24">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="26" t="str">
         <f>IF(G43-J43=0,"",ROUND(G43-J43,2)*100&amp;"% Better")</f>
-        <v>9% Better</v>
+        <v/>
       </c>
       <c r="J43" s="24">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
-        <f ca="1">IFERROR(OFFSET(B44,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G44" s="24">
-        <v>0.55000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="H44" s="26" t="str">
         <f>IF(G44-J44=0,"",ROUND(G44-J44,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J44" s="24">
-        <v>0.55000000000000004</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2101,66 +2152,66 @@
         <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G45" s="24">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="H45" s="26" t="str">
         <f>IF(G45-J45=0,"",ROUND(G45-J45,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J45" s="24">
-        <v>0</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(B46,-1,0,1,1)+1,"")</f>
         <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G46" s="24">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="H46" s="26" t="str">
-        <f t="shared" ref="H46:H51" si="6">IF(G46-J46=0,"",ROUND(G46-J46,2)*100&amp;"% Better")</f>
-        <v>16% Better</v>
+        <f>IF(G46-J46=0,"",ROUND(G46-J46,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J46" s="24">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(B47,-1,0,1,1)+1,"")</f>
         <v>43</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -2169,42 +2220,42 @@
         <v>2023</v>
       </c>
       <c r="G47" s="24">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="H47" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>4% Better</v>
+        <f>IF(G47-J47=0,"",ROUND(G47-J47,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J47" s="24">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(B48,-1,0,1,1)+1,"")</f>
         <v>44</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G48" s="24">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H48" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>50% Better</v>
+        <f>IF(G48-J48=0,"",ROUND(G48-J48,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J48" s="24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -2213,26 +2264,26 @@
         <v>45</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G49" s="24">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H49" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(G49-J49=0,"",ROUND(G49-J49,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J49" s="24">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -2241,63 +2292,63 @@
         <v>46</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G50" s="24">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="H50" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>24% Better</v>
+        <f>IF(G50-J50=0,"",ROUND(G50-J50,2)*100&amp;"% Better")</f>
+        <v/>
       </c>
       <c r="J50" s="24">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
-        <f t="shared" ref="B51:B56" ca="1" si="7">IFERROR(OFFSET(B51,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="8">
-        <v>2023</v>
+      <c r="E51" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="28">
+        <v>2024</v>
       </c>
       <c r="G51" s="24">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="H51" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(G51-J51=0,"",ROUND(G51-J51,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J51" s="24">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>13</v>
@@ -2309,54 +2360,54 @@
         <v>2023</v>
       </c>
       <c r="G52" s="24">
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H52" s="26" t="str">
         <f>IF(G52-J52=0,"",ROUND(G52-J52,2)*100&amp;"% Better")</f>
-        <v>22% Better</v>
+        <v/>
       </c>
       <c r="J52" s="24">
-        <v>0.13</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G53" s="24">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="H53" s="26" t="str">
         <f>IF(G53-J53=0,"",ROUND(G53-J53,2)*100&amp;"% Better")</f>
-        <v>15% Better</v>
+        <v>8% Better</v>
       </c>
       <c r="J53" s="24">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>17</v>
@@ -2365,26 +2416,26 @@
         <v>2024</v>
       </c>
       <c r="G54" s="24">
-        <v>0.28999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="H54" s="26" t="str">
         <f>IF(G54-J54=0,"",ROUND(G54-J54,2)*100&amp;"% Better")</f>
-        <v>29% Better</v>
+        <v/>
       </c>
       <c r="J54" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>17</v>
@@ -2393,11 +2444,11 @@
         <v>2024</v>
       </c>
       <c r="G55" s="24">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H55" s="26" t="str">
         <f>IF(G55-J55=0,"",ROUND(G55-J55,2)*100&amp;"% Better")</f>
-        <v>14% Better</v>
+        <v/>
       </c>
       <c r="J55" s="24">
         <v>0</v>
@@ -2405,14 +2456,14 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>17</v>
@@ -2421,14 +2472,14 @@
         <v>2023</v>
       </c>
       <c r="G56" s="24">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H56" s="26" t="str">
         <f>IF(G56-J56=0,"",ROUND(G56-J56,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J56" s="24">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -2437,7 +2488,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>13</v>
@@ -2449,14 +2500,14 @@
         <v>2023</v>
       </c>
       <c r="G57" s="24">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H57" s="26" t="str">
-        <f t="shared" ref="H57:H70" si="8">IF(G57-J57=0,"",ROUND(G57-J57,2)*100&amp;"% Better")</f>
+        <f>IF(G57-J57=0,"",ROUND(G57-J57,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J57" s="24">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -2465,7 +2516,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -2477,14 +2528,14 @@
         <v>2023</v>
       </c>
       <c r="G58" s="24">
-        <v>0.93</v>
+        <v>0.32</v>
       </c>
       <c r="H58" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G58-J58=0,"",ROUND(G58-J58,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J58" s="24">
-        <v>0.93</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -2493,7 +2544,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>13</v>
@@ -2505,14 +2556,14 @@
         <v>2023</v>
       </c>
       <c r="G59" s="24">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="H59" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G59-J59=0,"",ROUND(G59-J59,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J59" s="24">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -2521,7 +2572,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>13</v>
@@ -2536,7 +2587,7 @@
         <v>0.43</v>
       </c>
       <c r="H60" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G60-J60=0,"",ROUND(G60-J60,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J60" s="24">
@@ -2545,11 +2596,11 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="5">
-        <f ca="1">IFERROR(OFFSET(B61,-1,0,1,1)+1,"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -2561,14 +2612,14 @@
         <v>2023</v>
       </c>
       <c r="G61" s="24">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="H61" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G61-J61=0,"",ROUND(G61-J61,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J61" s="24">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -2577,10 +2628,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>17</v>
@@ -2589,14 +2640,14 @@
         <v>2023</v>
       </c>
       <c r="G62" s="24">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H62" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G62-J62=0,"",ROUND(G62-J62,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J62" s="24">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -2605,82 +2656,82 @@
         <v>59</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G63" s="24">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="H63" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f>IF(G63-J63=0,"",ROUND(G63-J63,2)*100&amp;"% Better")</f>
+        <v>21% Better</v>
       </c>
       <c r="J63" s="24">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(B64,-1,0,1,1)+1,"")</f>
         <v>60</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G64" s="24">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="H64" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f>IF(G64-J64=0,"",ROUND(G64-J64,2)*100&amp;"% Better")</f>
+        <v>13% Better</v>
       </c>
       <c r="J64" s="24">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(B65,-1,0,1,1)+1,"")</f>
         <v>61</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G65" s="24">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="H65" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f>IF(G65-J65=0,"",ROUND(G65-J65,2)*100&amp;"% Better")</f>
+        <v>16% Better</v>
       </c>
       <c r="J65" s="24">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -2689,10 +2740,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>17</v>
@@ -2701,14 +2752,14 @@
         <v>2023</v>
       </c>
       <c r="G66" s="24">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="H66" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G66-J66=0,"",ROUND(G66-J66,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J66" s="24">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -2717,10 +2768,10 @@
         <v>63</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>17</v>
@@ -2729,14 +2780,14 @@
         <v>2023</v>
       </c>
       <c r="G67" s="24">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="H67" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f>IF(G67-J67=0,"",ROUND(G67-J67,2)*100&amp;"% Better")</f>
+        <v>67% Better</v>
       </c>
       <c r="J67" s="24">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -2745,10 +2796,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>17</v>
@@ -2757,14 +2808,14 @@
         <v>2023</v>
       </c>
       <c r="G68" s="24">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="H68" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(G68-J68=0,"",ROUND(G68-J68,2)*100&amp;"% Better")</f>
         <v/>
       </c>
       <c r="J68" s="24">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -2773,10 +2824,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>17</v>
@@ -2785,14 +2836,14 @@
         <v>2023</v>
       </c>
       <c r="G69" s="24">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="H69" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f>IF(G69-J69=0,"",ROUND(G69-J69,2)*100&amp;"% Better")</f>
+        <v>24% Better</v>
       </c>
       <c r="J69" s="24">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -2801,26 +2852,194 @@
         <v>66</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="H70" s="26" t="str">
+        <f>IF(G70-J70=0,"",ROUND(G70-J70,2)*100&amp;"% Better")</f>
+        <v>8% Better</v>
+      </c>
+      <c r="J70" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G71" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H71" s="26" t="str">
+        <f>IF(G71-J71=0,"",ROUND(G71-J71,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J71" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G72" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H72" s="26" t="str">
+        <f>IF(G72-J72=0,"",ROUND(G72-J72,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J72" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <f ca="1">IFERROR(OFFSET(B73,-1,0,1,1)+1,"")</f>
+        <v>69</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G73" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="H73" s="26" t="str">
+        <f>IF(G73-J73=0,"",ROUND(G73-J73,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J73" s="24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>70</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="8">
-        <v>2023</v>
-      </c>
-      <c r="G70" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="H70" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J70" s="24">
-        <v>0.27</v>
+      <c r="C74" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G74" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H74" s="26" t="str">
+        <f>IF(G74-J74=0,"",ROUND(G74-J74,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J74" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H75" s="26" t="str">
+        <f>IF(G75-J75=0,"",ROUND(G75-J75,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J75" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G76" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="H76" s="26" t="str">
+        <f>IF(G76-J76=0,"",ROUND(G76-J76,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J76" s="24">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -2830,13 +3049,3283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E84F011-FF30-4A7E-A7AF-96916FB29A71}">
+  <dimension ref="B5:J55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <f ca="1">IFERROR(OFFSET(B5,-1,0,1,1)+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="H5" s="26" t="str">
+        <f>IF(G5-J5=0,"",ROUND(G5-J5,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J5" s="24">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f ca="1">IFERROR(OFFSET(B6,-1,0,1,1)+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="H6" s="26" t="str">
+        <f>IF(G6-J6=0,"",ROUND(G6-J6,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J6" s="24">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <f ca="1">IFERROR(OFFSET(B7,-1,0,1,1)+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="H7" s="26" t="str">
+        <f>IF(G7-J7=0,"",ROUND(G7-J7,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J7" s="24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <f ca="1">IFERROR(OFFSET(B8,-1,0,1,1)+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="H8" s="26" t="str">
+        <f>IF(G8-J8=0,"",ROUND(G8-J8,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J8" s="24">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <f ca="1">IFERROR(OFFSET(B9,-1,0,1,1)+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26" t="str">
+        <f>IF(G9-J9=0,"",ROUND(G9-J9,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <f ca="1">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H10" s="26" t="str">
+        <f>IF(G10-J10=0,"",ROUND(G10-J10,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J10" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <f ca="1">IFERROR(OFFSET(B11,-1,0,1,1)+1,"")</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="H11" s="26" t="str">
+        <f>IF(G11-J11=0,"",ROUND(G11-J11,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J11" s="24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f ca="1">IFERROR(OFFSET(B12,-1,0,1,1)+1,"")</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="H12" s="26" t="str">
+        <f>IF(G12-J12=0,"",ROUND(G12-J12,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J12" s="24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f ca="1">IFERROR(OFFSET(B13,-1,0,1,1)+1,"")</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G13" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H13" s="26" t="str">
+        <f>IF(G13-J13=0,"",ROUND(G13-J13,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J13" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f ca="1">IFERROR(OFFSET(B14,-1,0,1,1)+1,"")</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="H14" s="26" t="str">
+        <f>IF(G14-J14=0,"",ROUND(G14-J14,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J14" s="24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <f ca="1">IFERROR(OFFSET(B15,-1,0,1,1)+1,"")</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="26" t="str">
+        <f>IF(G15-J15=0,"",ROUND(G15-J15,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J15" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <f ca="1">IFERROR(OFFSET(B16,-1,0,1,1)+1,"")</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="H16" s="26" t="str">
+        <f>IF(G16-J16=0,"",ROUND(G16-J16,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J16" s="24">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <f ca="1">IFERROR(OFFSET(B17,-1,0,1,1)+1,"")</f>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="H17" s="26" t="str">
+        <f>IF(G17-J17=0,"",ROUND(G17-J17,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J17" s="24">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <f ca="1">IFERROR(OFFSET(B18,-1,0,1,1)+1,"")</f>
+        <v>14</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="H18" s="26" t="str">
+        <f>IF(G18-J18=0,"",ROUND(G18-J18,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J18" s="24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <f ca="1">IFERROR(OFFSET(B19,-1,0,1,1)+1,"")</f>
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H19" s="26" t="str">
+        <f>IF(G19-J19=0,"",ROUND(G19-J19,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J19" s="24">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <f ca="1">IFERROR(OFFSET(B20,-1,0,1,1)+1,"")</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H20" s="26" t="str">
+        <f>IF(G20-J20=0,"",ROUND(G20-J20,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J20" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <f ca="1">IFERROR(OFFSET(B21,-1,0,1,1)+1,"")</f>
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="26" t="str">
+        <f>IF(G21-J21=0,"",ROUND(G21-J21,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J21" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <f ca="1">IFERROR(OFFSET(B22,-1,0,1,1)+1,"")</f>
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H22" s="26" t="str">
+        <f>IF(G22-J22=0,"",ROUND(G22-J22,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J22" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f ca="1">IFERROR(OFFSET(B23,-1,0,1,1)+1,"")</f>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="H23" s="26" t="str">
+        <f>IF(G23-J23=0,"",ROUND(G23-J23,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J23" s="24">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f ca="1">IFERROR(OFFSET(B24,-1,0,1,1)+1,"")</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="26" t="str">
+        <f>IF(G24-J24=0,"",ROUND(G24-J24,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J24" s="24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f ca="1">IFERROR(OFFSET(B25,-1,0,1,1)+1,"")</f>
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="H25" s="26" t="str">
+        <f>IF(G25-J25=0,"",ROUND(G25-J25,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J25" s="24">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f ca="1">IFERROR(OFFSET(B26,-1,0,1,1)+1,"")</f>
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="H26" s="26" t="str">
+        <f>IF(G26-J26=0,"",ROUND(G26-J26,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J26" s="24">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f ca="1">IFERROR(OFFSET(B27,-1,0,1,1)+1,"")</f>
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H27" s="26" t="str">
+        <f>IF(G27-J27=0,"",ROUND(G27-J27,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J27" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f ca="1">IFERROR(OFFSET(B28,-1,0,1,1)+1,"")</f>
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="H28" s="26" t="str">
+        <f>IF(G28-J28=0,"",ROUND(G28-J28,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J28" s="24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f ca="1">IFERROR(OFFSET(B29,-1,0,1,1)+1,"")</f>
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="26" t="str">
+        <f>IF(G29-J29=0,"",ROUND(G29-J29,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J29" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f ca="1">IFERROR(OFFSET(B30,-1,0,1,1)+1,"")</f>
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="H30" s="26" t="str">
+        <f>IF(G30-J30=0,"",ROUND(G30-J30,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J30" s="24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f ca="1">IFERROR(OFFSET(B31,-1,0,1,1)+1,"")</f>
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="H31" s="26" t="str">
+        <f>IF(G31-J31=0,"",ROUND(G31-J31,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J31" s="24">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f ca="1">IFERROR(OFFSET(B32,-1,0,1,1)+1,"")</f>
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="28">
+        <v>2024</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="H32" s="26" t="str">
+        <f>IF(G32-J32=0,"",ROUND(G32-J32,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J32" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <f ca="1">IFERROR(OFFSET(B33,-1,0,1,1)+1,"")</f>
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H33" s="26" t="str">
+        <f>IF(G33-J33=0,"",ROUND(G33-J33,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J33" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f ca="1">IFERROR(OFFSET(B34,-1,0,1,1)+1,"")</f>
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="H34" s="26" t="str">
+        <f>IF(G34-J34=0,"",ROUND(G34-J34,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J34" s="24">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <f ca="1">IFERROR(OFFSET(B35,-1,0,1,1)+1,"")</f>
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="26" t="str">
+        <f>IF(G35-J35=0,"",ROUND(G35-J35,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J35" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <f ca="1">IFERROR(OFFSET(B36,-1,0,1,1)+1,"")</f>
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+      <c r="H36" s="26" t="str">
+        <f>IF(G36-J36=0,"",ROUND(G36-J36,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <f ca="1">IFERROR(OFFSET(B37,-1,0,1,1)+1,"")</f>
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H37" s="26" t="str">
+        <f>IF(G37-J37=0,"",ROUND(G37-J37,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J37" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <f ca="1">IFERROR(OFFSET(B38,-1,0,1,1)+1,"")</f>
+        <v>34</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H38" s="26" t="str">
+        <f>IF(G38-J38=0,"",ROUND(G38-J38,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J38" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <f ca="1">IFERROR(OFFSET(B39,-1,0,1,1)+1,"")</f>
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="H39" s="26" t="str">
+        <f>IF(G39-J39=0,"",ROUND(G39-J39,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J39" s="24">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <f ca="1">IFERROR(OFFSET(B40,-1,0,1,1)+1,"")</f>
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="H40" s="26" t="str">
+        <f>IF(G40-J40=0,"",ROUND(G40-J40,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J40" s="24">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <f ca="1">IFERROR(OFFSET(B41,-1,0,1,1)+1,"")</f>
+        <v>37</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="H41" s="26" t="str">
+        <f>IF(G41-J41=0,"",ROUND(G41-J41,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J41" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <f ca="1">IFERROR(OFFSET(B42,-1,0,1,1)+1,"")</f>
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="H42" s="26" t="str">
+        <f>IF(G42-J42=0,"",ROUND(G42-J42,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J42" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <f ca="1">IFERROR(OFFSET(B43,-1,0,1,1)+1,"")</f>
+        <v>39</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H43" s="26" t="str">
+        <f>IF(G43-J43=0,"",ROUND(G43-J43,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J43" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <f ca="1">IFERROR(OFFSET(B44,-1,0,1,1)+1,"")</f>
+        <v>40</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="H44" s="26" t="str">
+        <f>IF(G44-J44=0,"",ROUND(G44-J44,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J44" s="24">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <f ca="1">IFERROR(OFFSET(B45,-1,0,1,1)+1,"")</f>
+        <v>41</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="H45" s="26" t="str">
+        <f>IF(G45-J45=0,"",ROUND(G45-J45,2)*100&amp;"% Better")</f>
+        <v>67% Better</v>
+      </c>
+      <c r="J45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <f ca="1">IFERROR(OFFSET(B46,-1,0,1,1)+1,"")</f>
+        <v>42</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H46" s="26" t="str">
+        <f>IF(G46-J46=0,"",ROUND(G46-J46,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J46" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <f ca="1">IFERROR(OFFSET(B47,-1,0,1,1)+1,"")</f>
+        <v>43</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H47" s="26" t="str">
+        <f>IF(G47-J47=0,"",ROUND(G47-J47,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J47" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <f ca="1">IFERROR(OFFSET(B48,-1,0,1,1)+1,"")</f>
+        <v>44</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="H48" s="26" t="str">
+        <f>IF(G48-J48=0,"",ROUND(G48-J48,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J48" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <f ca="1">IFERROR(OFFSET(B49,-1,0,1,1)+1,"")</f>
+        <v>45</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H49" s="26" t="str">
+        <f>IF(G49-J49=0,"",ROUND(G49-J49,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J49" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <f ca="1">IFERROR(OFFSET(B50,-1,0,1,1)+1,"")</f>
+        <v>46</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H50" s="26" t="str">
+        <f>IF(G50-J50=0,"",ROUND(G50-J50,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J50" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <f ca="1">IFERROR(OFFSET(B51,-1,0,1,1)+1,"")</f>
+        <v>47</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="H51" s="26" t="str">
+        <f>IF(G51-J51=0,"",ROUND(G51-J51,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J51" s="24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <f ca="1">IFERROR(OFFSET(B52,-1,0,1,1)+1,"")</f>
+        <v>48</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H52" s="26" t="str">
+        <f>IF(G52-J52=0,"",ROUND(G52-J52,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J52" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <f ca="1">IFERROR(OFFSET(B53,-1,0,1,1)+1,"")</f>
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="H53" s="26" t="str">
+        <f>IF(G53-J53=0,"",ROUND(G53-J53,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J53" s="24">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <f ca="1">IFERROR(OFFSET(B54,-1,0,1,1)+1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H54" s="26" t="str">
+        <f>IF(G54-J54=0,"",ROUND(G54-J54,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J54" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <f ca="1">IFERROR(OFFSET(B55,-1,0,1,1)+1,"")</f>
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="H55" s="26" t="str">
+        <f>IF(G55-J55=0,"",ROUND(G55-J55,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J55" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J55">
+    <sortCondition ref="D5:D55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3795532F-1F0F-42CE-8B07-87BBE58AA400}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="B1:J70"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19">
+        <v>44622</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <f ca="1">IFERROR(OFFSET(B6,-1,0,1,1)+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="19">
+        <v>44641</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <f ca="1">IFERROR(OFFSET(B7,-1,0,1,1)+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19">
+        <v>44710</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <f ca="1">IFERROR(OFFSET(B8,-1,0,1,1)+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19">
+        <v>44724</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <f ca="1">IFERROR(OFFSET(B9,-1,0,1,1)+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="19">
+        <v>44807</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2022</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <f t="shared" ref="B10:B70" ca="1" si="0">IFERROR(OFFSET(B10,-1,0,1,1)+1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="19">
+        <v>44939</v>
+      </c>
+      <c r="F10" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="19">
+        <v>44958</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="19">
+        <v>45001</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="19">
+        <v>45003</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="19">
+        <v>45080</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <f t="shared" ref="B16:B40" ca="1" si="1">IFERROR(OFFSET(B16,-1,0,1,1)+1,"")</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="20">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H21" s="26" t="str">
+        <f t="shared" ref="H21:H27" si="2">IF(G21-J21=0,"",ROUND(G21-J21,2)*100&amp;"% Better")</f>
+        <v>5% Better</v>
+      </c>
+      <c r="J21" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="H22" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>21% Better</v>
+      </c>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="H23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>17% Better</v>
+      </c>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="H24" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>17% Better</v>
+      </c>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="28">
+        <v>2024</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="H25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>38% Better</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="H26" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>5% Better</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G27" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>7% Better</v>
+      </c>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="H28" s="26" t="str">
+        <f>IF(G28-J28=0,"",ROUND(G28-J28,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J28" s="24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="H29" s="26" t="str">
+        <f t="shared" ref="H29:H32" si="3">IF(G29-J29=0,"",ROUND(G29-J29,2)*100&amp;"% Better")</f>
+        <v>28% Better</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="H30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>36% Better</v>
+      </c>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>20% Better</v>
+      </c>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="H32" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>19% Better</v>
+      </c>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H33" s="26" t="str">
+        <f t="shared" ref="H33:H40" si="4">IF(G33-J33=0,"",ROUND(G33-J33,2)*100&amp;"% Better")</f>
+        <v>2% Better</v>
+      </c>
+      <c r="J33" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J34" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="H35" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>21% Better</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="H36" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>11% Better</v>
+      </c>
+      <c r="J36" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H37" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J37" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="H38" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J38" s="24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="H39" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J39" s="24">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H40" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J40" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="H41" s="26" t="str">
+        <f t="shared" ref="H41" si="5">IF(G41-J41=0,"",ROUND(G41-J41,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J41" s="24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <f ca="1">IFERROR(OFFSET(B42,-1,0,1,1)+1,"")</f>
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H42" s="26" t="str">
+        <f>IF(G42-J42=0,"",ROUND(G42-J42,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J42" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <f ca="1">IFERROR(OFFSET(B43,-1,0,1,1)+1,"")</f>
+        <v>39</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H43" s="26" t="str">
+        <f>IF(G43-J43=0,"",ROUND(G43-J43,2)*100&amp;"% Better")</f>
+        <v>9% Better</v>
+      </c>
+      <c r="J43" s="24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <f ca="1">IFERROR(OFFSET(B44,-1,0,1,1)+1,"")</f>
+        <v>40</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H44" s="26" t="str">
+        <f>IF(G44-J44=0,"",ROUND(G44-J44,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J44" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <f ca="1">IFERROR(OFFSET(B45,-1,0,1,1)+1,"")</f>
+        <v>41</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26" t="str">
+        <f>IF(G45-J45=0,"",ROUND(G45-J45,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H46" s="26" t="str">
+        <f t="shared" ref="H46:H51" si="6">IF(G46-J46=0,"",ROUND(G46-J46,2)*100&amp;"% Better")</f>
+        <v>16% Better</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="H47" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>4% Better</v>
+      </c>
+      <c r="J47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>50% Better</v>
+      </c>
+      <c r="J48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+      <c r="H49" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="H50" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>24% Better</v>
+      </c>
+      <c r="J50" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <f t="shared" ref="B51:B56" ca="1" si="7">IFERROR(OFFSET(B51,-1,0,1,1)+1,"")</f>
+        <v>47</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H51" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J51" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H52" s="26" t="str">
+        <f>IF(G52-J52=0,"",ROUND(G52-J52,2)*100&amp;"% Better")</f>
+        <v>22% Better</v>
+      </c>
+      <c r="J52" s="24">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="H53" s="26" t="str">
+        <f>IF(G53-J53=0,"",ROUND(G53-J53,2)*100&amp;"% Better")</f>
+        <v>15% Better</v>
+      </c>
+      <c r="J53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H54" s="26" t="str">
+        <f>IF(G54-J54=0,"",ROUND(G54-J54,2)*100&amp;"% Better")</f>
+        <v>29% Better</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H55" s="26" t="str">
+        <f>IF(G55-J55=0,"",ROUND(G55-J55,2)*100&amp;"% Better")</f>
+        <v>14% Better</v>
+      </c>
+      <c r="J55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="26" t="str">
+        <f>IF(G56-J56=0,"",ROUND(G56-J56,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J56" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="H57" s="26" t="str">
+        <f t="shared" ref="H57:H70" si="8">IF(G57-J57=0,"",ROUND(G57-J57,2)*100&amp;"% Better")</f>
+        <v/>
+      </c>
+      <c r="J57" s="24">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="H58" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J58" s="24">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="H59" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J59" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="H60" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J60" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5">
+        <f ca="1">IFERROR(OFFSET(B61,-1,0,1,1)+1,"")</f>
+        <v>57</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H61" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J61" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H62" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J62" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="H63" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J63" s="24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G64" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="H64" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J64" s="24">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G65" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="H65" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J65" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G66" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="H66" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J66" s="24">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="5">
+        <f ca="1">IFERROR(OFFSET(B67,-1,0,1,1)+1,"")</f>
+        <v>63</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="H67" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J67" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G68" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="H68" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J68" s="24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G69" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="H69" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J69" s="24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="H70" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J70" s="24">
+        <v>0.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630D6B9D-C5F0-4332-9319-D6CA83C18678}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
